--- a/Dataframes/DATASET_multiplebuds_auto.xlsx
+++ b/Dataframes/DATASET_multiplebuds_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD94742C-802D-4A61-809D-654053E097EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B619A0C-6811-4BE4-B0D8-9450E9649946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3735" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
+    <workbookView xWindow="-23148" yWindow="2976" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -726,10 +726,10 @@
   <dimension ref="A1:P1131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D573" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C574" sqref="C574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30488,10 +30488,10 @@
         <v>1</v>
       </c>
       <c r="J586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K586" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L586" s="1">
         <v>2021</v>
@@ -30503,7 +30503,7 @@
         <v>5</v>
       </c>
       <c r="O586" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P586" s="1">
         <f t="shared" si="15"/>

--- a/Dataframes/DATASET_multiplebuds_auto.xlsx
+++ b/Dataframes/DATASET_multiplebuds_auto.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B619A0C-6811-4BE4-B0D8-9450E9649946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD2AEA7-42D4-44F5-B14F-215D709F2E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2976" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
     <sheet name="DATASET_multiplebuds_auto" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATASET_multiplebuds_auto!$A$1:$P$1131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATASET_multiplebuds_auto!$A$1:$AN$1131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -726,10 +726,10 @@
   <dimension ref="A1:P1131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D573" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C574" sqref="C574"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" s="2">
         <v>2</v>
@@ -12576,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" s="2">
         <v>2</v>
@@ -39053,7 +39053,7 @@
         <v>1</v>
       </c>
       <c r="J754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K754" s="2">
         <v>2</v>

--- a/Dataframes/DATASET_multiplebuds_auto.xlsx
+++ b/Dataframes/DATASET_multiplebuds_auto.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6109C1-DB07-466E-ADA4-6BEB994D312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD10001-E57C-40B5-B3EE-A903C39A3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25780" windowHeight="15580" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
     <sheet name="DATASET_multiplebuds_auto" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATASET_multiplebuds_auto!$A$1:$P$1132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATASET_multiplebuds_auto!$A$1:$AN$1132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -736,10 +736,10 @@
   <dimension ref="A1:P1132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Dataframes/DATASET_multiplebuds_auto.xlsx
+++ b/Dataframes/DATASET_multiplebuds_auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Google Drive\PhD\Deruta\auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD10001-E57C-40B5-B3EE-A903C39A3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C531AB6E-FBFC-4D3E-9098-FB855B636ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{18A1470A-AF03-482B-9A35-2915C834ED09}"/>
   </bookViews>
@@ -736,10 +736,10 @@
   <dimension ref="A1:P1132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1086" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="L1091" sqref="L1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
